--- a/solver_partner_weights.xlsx
+++ b/solver_partner_weights.xlsx
@@ -6373,7 +6373,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2,0,0.8,0.01</t>
+          <t>2,0,80,0.01</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">

--- a/solver_partner_weights.xlsx
+++ b/solver_partner_weights.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="17440" windowWidth="28040" xWindow="2780" yWindow="1560"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -63,92 +63,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -455,32 +387,32 @@
   </sheetPr>
   <dimension ref="A1:AG53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="86">
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="51"/>
-    <col customWidth="1" max="2" min="2" width="22.1640625"/>
-    <col customWidth="1" max="3" min="3" width="20.33203125"/>
-    <col customWidth="1" max="4" min="4" width="19.5"/>
-    <col customWidth="1" max="5" min="5" width="18.5"/>
-    <col customWidth="1" max="6" min="6" width="17.83203125"/>
-    <col customWidth="1" max="7" min="7" width="17.33203125"/>
-    <col customWidth="1" max="8" min="8" width="17"/>
-    <col customWidth="1" max="9" min="9" width="15.6640625"/>
-    <col customWidth="1" max="10" min="10" width="17.6640625"/>
-    <col customWidth="1" max="11" min="11" width="19.1640625"/>
-    <col customWidth="1" max="12" min="12" width="15.1640625"/>
-    <col customWidth="1" max="13" min="13" width="19.1640625"/>
-    <col customWidth="1" max="14" min="14" width="16.5"/>
-    <col customWidth="1" max="15" min="15" width="18"/>
-    <col customWidth="1" max="16" min="16" width="14.6640625"/>
-    <col customWidth="1" max="33" min="33" width="39.5"/>
+    <col width="51" customWidth="1" min="1" max="1"/>
+    <col width="22.1640625" customWidth="1" min="2" max="2"/>
+    <col width="20.33203125" customWidth="1" min="3" max="3"/>
+    <col width="19.5" customWidth="1" min="4" max="4"/>
+    <col width="18.5" customWidth="1" min="5" max="5"/>
+    <col width="17.83203125" customWidth="1" min="6" max="6"/>
+    <col width="17.33203125" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="8" max="8"/>
+    <col width="15.6640625" customWidth="1" min="9" max="9"/>
+    <col width="17.6640625" customWidth="1" min="10" max="10"/>
+    <col width="19.1640625" customWidth="1" min="11" max="11"/>
+    <col width="15.1640625" customWidth="1" min="12" max="12"/>
+    <col width="19.1640625" customWidth="1" min="13" max="13"/>
+    <col width="16.5" customWidth="1" min="14" max="14"/>
+    <col width="18" customWidth="1" min="15" max="15"/>
+    <col width="14.6640625" customWidth="1" min="16" max="16"/>
+    <col width="39.5" customWidth="1" min="33" max="33"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="48" r="1" s="3">
+    <row r="1" ht="48" customFormat="1" customHeight="1" s="3">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Org_y</t>
@@ -5999,7 +5931,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,0,0,0</t>
+          <t>2,0,0,2</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -9272,6 +9204,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>